--- a/Geomorphology/Discharge/Point2_2021-06-29_1238.xlsx
+++ b/Geomorphology/Discharge/Point2_2021-06-29_1238.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Geomorphology/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2021/Geomorphology/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAA304C4-358C-4186-BFFF-B50F70D098C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46703508-4023-5348-BD59-85E8877BA711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3044746-1FE2-4BE4-AA7F-CBDC878B74E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="13140" xr2:uid="{D3044746-1FE2-4BE4-AA7F-CBDC878B74E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Point 2</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>this is the stream above GAVI</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Qtotal</t>
   </si>
 </sst>
 </file>
@@ -417,24 +426,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC70E39-A5D0-480B-A5F8-A18F866CC672}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -442,7 +451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.32936599999999999</v>
       </c>
@@ -450,7 +459,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -458,7 +467,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -466,7 +475,7 @@
         <v>0.52638888888888891</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -474,7 +483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -484,8 +493,17 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -495,8 +513,16 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <f>A8/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="F8">
+        <f>SUM(E8:E26)</f>
+        <v>9.0800000000000006E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -506,8 +532,16 @@
       <c r="C9">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <f>(A8/100+(A9/100-A8/100)/2)</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E16" si="0">(D9-D8)*(B9/100)*C9</f>
+        <v>1.4000000000000005E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -517,8 +551,16 @@
       <c r="C10">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <f t="shared" ref="D10:D15" si="1">(A9/100+(A10/100-A9/100)/2)</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E10">
+        <f>(D10-D9)*(B10/100)*C10</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -528,8 +570,16 @@
       <c r="C11">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="E11">
+        <f>(D11-D10)*(B11/100)*C11</f>
+        <v>5.0400000000000011E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>18</v>
       </c>
@@ -539,8 +589,16 @@
       <c r="C12">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.9199999999999995E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20</v>
       </c>
@@ -550,8 +608,16 @@
       <c r="C13">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.44E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>25</v>
       </c>
@@ -561,8 +627,16 @@
       <c r="C14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>26</v>
       </c>
@@ -570,6 +644,78 @@
         <v>0</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.255</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" ref="D12:D16" si="2">(A16/100+(A17/100-A16/100)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" ref="D9:D25" si="3">(C17-C16)*(A17/100)*B17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
